--- a/Machine Learning/data/quiz-data.xlsx
+++ b/Machine Learning/data/quiz-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Área de Trabalho\Python\Projetos-analise-de-dados\soundmatch-game\Machine Learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54C0982-F59C-4929-8A06-EFC1CDD49552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D54D1-47F2-4E28-8DFF-B5E433E79610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09A16FAD-6D0A-47EB-9E76-37C765F75A20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="34">
   <si>
     <t>Q1</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Música Clássica</t>
+  </si>
+  <si>
+    <t>NULO</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1517,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7979AC17-43B9-4D73-A704-AFF129E0A94E}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,13 +1618,27 @@
       <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="S2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1664,13 +1677,27 @@
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="S3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1709,13 +1736,27 @@
       <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1754,13 +1795,27 @@
       <c r="K5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1799,13 +1854,27 @@
       <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1844,13 +1913,27 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1889,13 +1972,27 @@
       <c r="K8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1934,13 +2031,27 @@
       <c r="K9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1967,10 +2078,18 @@
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1983,9 +2102,15 @@
       <c r="O10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="P10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2012,10 +2137,18 @@
       <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L11" s="9" t="s">
         <v>19</v>
       </c>
@@ -2028,9 +2161,15 @@
       <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="P11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S11" s="10" t="s">
         <v>27</v>
       </c>
@@ -2057,10 +2196,18 @@
       <c r="G12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="9" t="s">
         <v>19</v>
       </c>
@@ -2073,9 +2220,15 @@
       <c r="O12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2102,10 +2255,18 @@
       <c r="G13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2118,9 +2279,15 @@
       <c r="O13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2147,10 +2314,18 @@
       <c r="G14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
@@ -2163,9 +2338,15 @@
       <c r="O14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S14" s="10" t="s">
         <v>28</v>
       </c>
@@ -2192,10 +2373,18 @@
       <c r="G15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>19</v>
       </c>
@@ -2208,9 +2397,15 @@
       <c r="O15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2237,10 +2432,18 @@
       <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>19</v>
       </c>
@@ -2253,9 +2456,15 @@
       <c r="O16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S16" s="10" t="s">
         <v>29</v>
       </c>
@@ -2282,10 +2491,18 @@
       <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L17" s="9" t="s">
         <v>19</v>
       </c>
@@ -2298,9 +2515,15 @@
       <c r="O17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="P17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S17" s="10" t="s">
         <v>29</v>
       </c>
@@ -2327,10 +2550,18 @@
       <c r="G18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
       </c>
@@ -2343,9 +2574,15 @@
       <c r="O18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="P18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S18" s="10" t="s">
         <v>30</v>
       </c>
@@ -2372,10 +2609,18 @@
       <c r="G19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" s="9" t="s">
         <v>19</v>
       </c>
@@ -2388,9 +2633,15 @@
       <c r="O19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S19" s="10" t="s">
         <v>30</v>
       </c>
@@ -2417,16 +2668,30 @@
       <c r="G20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P20" s="9" t="s">
         <v>21</v>
       </c>
@@ -2462,16 +2727,30 @@
       <c r="G21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P21" s="9" t="s">
         <v>21</v>
       </c>
@@ -2507,16 +2786,30 @@
       <c r="G22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
@@ -2552,16 +2845,30 @@
       <c r="G23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2609,13 +2916,27 @@
       <c r="K24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S24" s="10" t="s">
         <v>22</v>
       </c>
@@ -2654,13 +2975,27 @@
       <c r="K25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S25" s="10" t="s">
         <v>22</v>
       </c>
@@ -2699,13 +3034,27 @@
       <c r="K26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2744,13 +3093,27 @@
       <c r="K27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S27" s="10" t="s">
         <v>18</v>
       </c>
@@ -2789,13 +3152,27 @@
       <c r="K28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2834,13 +3211,27 @@
       <c r="K29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S29" s="10" t="s">
         <v>26</v>
       </c>
@@ -2879,13 +3270,27 @@
       <c r="K30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="L30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S30" s="10" t="s">
         <v>26</v>
       </c>
@@ -2912,10 +3317,18 @@
       <c r="G31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L31" s="9" t="s">
         <v>19</v>
       </c>
@@ -2928,9 +3341,15 @@
       <c r="O31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="P31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S31" s="10" t="s">
         <v>27</v>
       </c>
@@ -2957,10 +3376,18 @@
       <c r="G32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L32" s="9" t="s">
         <v>19</v>
       </c>
@@ -2973,9 +3400,15 @@
       <c r="O32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
+      <c r="P32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S32" s="10" t="s">
         <v>27</v>
       </c>
@@ -3002,10 +3435,18 @@
       <c r="G33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L33" s="9" t="s">
         <v>19</v>
       </c>
@@ -3018,9 +3459,15 @@
       <c r="O33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="P33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S33" s="10" t="s">
         <v>27</v>
       </c>
@@ -3047,10 +3494,18 @@
       <c r="G34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L34" s="9" t="s">
         <v>19</v>
       </c>
@@ -3063,9 +3518,15 @@
       <c r="O34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
+      <c r="P34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S34" s="10" t="s">
         <v>28</v>
       </c>
@@ -3092,10 +3553,18 @@
       <c r="G35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L35" s="9" t="s">
         <v>19</v>
       </c>
@@ -3108,9 +3577,15 @@
       <c r="O35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
+      <c r="P35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S35" s="10" t="s">
         <v>28</v>
       </c>
@@ -3137,10 +3612,18 @@
       <c r="G36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L36" s="9" t="s">
         <v>19</v>
       </c>
@@ -3153,9 +3636,15 @@
       <c r="O36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
+      <c r="P36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S36" s="10" t="s">
         <v>28</v>
       </c>
@@ -3182,10 +3671,18 @@
       <c r="G37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L37" s="9" t="s">
         <v>19</v>
       </c>
@@ -3198,9 +3695,15 @@
       <c r="O37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
+      <c r="P37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S37" s="10" t="s">
         <v>29</v>
       </c>
@@ -3227,10 +3730,18 @@
       <c r="G38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L38" s="9" t="s">
         <v>19</v>
       </c>
@@ -3243,9 +3754,15 @@
       <c r="O38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
+      <c r="P38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S38" s="10" t="s">
         <v>29</v>
       </c>
@@ -3272,10 +3789,18 @@
       <c r="G39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L39" s="9" t="s">
         <v>19</v>
       </c>
@@ -3288,9 +3813,15 @@
       <c r="O39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
+      <c r="P39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S39" s="10" t="s">
         <v>30</v>
       </c>
@@ -3317,10 +3848,18 @@
       <c r="G40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L40" s="9" t="s">
         <v>19</v>
       </c>
@@ -3333,9 +3872,15 @@
       <c r="O40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
+      <c r="P40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="S40" s="10" t="s">
         <v>30</v>
       </c>
@@ -3362,16 +3907,30 @@
       <c r="G41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="M41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P41" s="9" t="s">
         <v>21</v>
       </c>
@@ -3407,16 +3966,30 @@
       <c r="G42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="M42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P42" s="9" t="s">
         <v>21</v>
       </c>
@@ -3452,16 +4025,30 @@
       <c r="G43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="M43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="P43" s="9" t="s">
         <v>19</v>
       </c>
@@ -3497,16 +4084,30 @@
       <c r="G44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="L44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="P44" s="12" t="s">
         <v>19</v>
       </c>
@@ -3554,13 +4155,27 @@
       <c r="K45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S45" s="1" t="s">
         <v>22</v>
       </c>
@@ -3599,13 +4214,27 @@
       <c r="K46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S46" s="1" t="s">
         <v>22</v>
       </c>
@@ -3644,13 +4273,27 @@
       <c r="K47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S47" s="1" t="s">
         <v>22</v>
       </c>
@@ -3689,13 +4332,27 @@
       <c r="K48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S48" s="1" t="s">
         <v>18</v>
       </c>
@@ -3734,13 +4391,27 @@
       <c r="K49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S49" s="1" t="s">
         <v>18</v>
       </c>
@@ -3779,13 +4450,27 @@
       <c r="K50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3824,13 +4509,27 @@
       <c r="K51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S51" s="1" t="s">
         <v>26</v>
       </c>
@@ -3869,13 +4568,27 @@
       <c r="K52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S52" s="1" t="s">
         <v>26</v>
       </c>
@@ -3914,13 +4627,27 @@
       <c r="K53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3947,10 +4674,18 @@
       <c r="G54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L54" s="1" t="s">
         <v>19</v>
       </c>
@@ -3963,9 +4698,15 @@
       <c r="O54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S54" s="1" t="s">
         <v>27</v>
       </c>
@@ -3992,10 +4733,18 @@
       <c r="G55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L55" s="1" t="s">
         <v>19</v>
       </c>
@@ -4008,9 +4757,15 @@
       <c r="O55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S55" s="1" t="s">
         <v>27</v>
       </c>
@@ -4037,10 +4792,18 @@
       <c r="G56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L56" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,9 +4816,15 @@
       <c r="O56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S56" s="1" t="s">
         <v>27</v>
       </c>
@@ -4082,10 +4851,18 @@
       <c r="G57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L57" s="1" t="s">
         <v>19</v>
       </c>
@@ -4098,9 +4875,15 @@
       <c r="O57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S57" s="1" t="s">
         <v>28</v>
       </c>
@@ -4127,10 +4910,18 @@
       <c r="G58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L58" s="1" t="s">
         <v>19</v>
       </c>
@@ -4143,9 +4934,15 @@
       <c r="O58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S58" s="1" t="s">
         <v>28</v>
       </c>
@@ -4172,10 +4969,18 @@
       <c r="G59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L59" s="1" t="s">
         <v>19</v>
       </c>
@@ -4188,9 +4993,15 @@
       <c r="O59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S59" s="1" t="s">
         <v>28</v>
       </c>
@@ -4217,10 +5028,18 @@
       <c r="G60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L60" s="1" t="s">
         <v>19</v>
       </c>
@@ -4233,9 +5052,15 @@
       <c r="O60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S60" s="1" t="s">
         <v>29</v>
       </c>
@@ -4262,10 +5087,18 @@
       <c r="G61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L61" s="1" t="s">
         <v>19</v>
       </c>
@@ -4278,9 +5111,15 @@
       <c r="O61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S61" s="1" t="s">
         <v>29</v>
       </c>
@@ -4307,10 +5146,18 @@
       <c r="G62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L62" s="1" t="s">
         <v>19</v>
       </c>
@@ -4323,9 +5170,15 @@
       <c r="O62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="P62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S62" s="1" t="s">
         <v>29</v>
       </c>
@@ -4352,10 +5205,18 @@
       <c r="G63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L63" s="1" t="s">
         <v>19</v>
       </c>
@@ -4368,9 +5229,15 @@
       <c r="O63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="P63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S63" s="1" t="s">
         <v>30</v>
       </c>
@@ -4397,10 +5264,18 @@
       <c r="G64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4413,9 +5288,15 @@
       <c r="O64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="P64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S64" s="1" t="s">
         <v>30</v>
       </c>
@@ -4442,16 +5323,30 @@
       <c r="G65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P65" s="1" t="s">
         <v>21</v>
       </c>
@@ -4487,16 +5382,30 @@
       <c r="G66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P66" s="1" t="s">
         <v>21</v>
       </c>
@@ -4532,16 +5441,30 @@
       <c r="G67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P67" s="1" t="s">
         <v>19</v>
       </c>
@@ -4577,16 +5500,30 @@
       <c r="G68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P68" s="1" t="s">
         <v>19</v>
       </c>
@@ -4634,13 +5571,27 @@
       <c r="K69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S69" s="1" t="s">
         <v>22</v>
       </c>
@@ -4679,13 +5630,27 @@
       <c r="K70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S70" s="1" t="s">
         <v>22</v>
       </c>
@@ -4724,13 +5689,27 @@
       <c r="K71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S71" s="1" t="s">
         <v>18</v>
       </c>
@@ -4769,13 +5748,27 @@
       <c r="K72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S72" s="1" t="s">
         <v>18</v>
       </c>
@@ -4814,13 +5807,27 @@
       <c r="K73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S73" s="1" t="s">
         <v>26</v>
       </c>
@@ -4847,10 +5854,18 @@
       <c r="G74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L74" s="1" t="s">
         <v>19</v>
       </c>
@@ -4863,9 +5878,15 @@
       <c r="O74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="P74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S74" s="1" t="s">
         <v>27</v>
       </c>
@@ -4892,10 +5913,18 @@
       <c r="G75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L75" s="1" t="s">
         <v>19</v>
       </c>
@@ -4908,9 +5937,15 @@
       <c r="O75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="P75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S75" s="1" t="s">
         <v>27</v>
       </c>
@@ -4937,10 +5972,18 @@
       <c r="G76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L76" s="1" t="s">
         <v>19</v>
       </c>
@@ -4953,9 +5996,15 @@
       <c r="O76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="P76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S76" s="1" t="s">
         <v>27</v>
       </c>
@@ -4982,10 +6031,18 @@
       <c r="G77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L77" s="1" t="s">
         <v>19</v>
       </c>
@@ -4998,9 +6055,15 @@
       <c r="O77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="P77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S77" s="1" t="s">
         <v>28</v>
       </c>
@@ -5027,10 +6090,18 @@
       <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L78" s="1" t="s">
         <v>19</v>
       </c>
@@ -5043,9 +6114,15 @@
       <c r="O78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="P78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S78" s="1" t="s">
         <v>28</v>
       </c>
@@ -5072,10 +6149,18 @@
       <c r="G79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L79" s="1" t="s">
         <v>19</v>
       </c>
@@ -5088,9 +6173,15 @@
       <c r="O79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="P79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S79" s="1" t="s">
         <v>29</v>
       </c>
@@ -5117,10 +6208,18 @@
       <c r="G80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L80" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,9 +6232,15 @@
       <c r="O80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="P80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S80" s="1" t="s">
         <v>29</v>
       </c>
@@ -5162,10 +6267,18 @@
       <c r="G81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L81" s="1" t="s">
         <v>19</v>
       </c>
@@ -5178,9 +6291,15 @@
       <c r="O81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="P81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S81" s="1" t="s">
         <v>30</v>
       </c>
@@ -5207,10 +6326,18 @@
       <c r="G82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L82" s="1" t="s">
         <v>19</v>
       </c>
@@ -5223,9 +6350,15 @@
       <c r="O82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="P82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S82" s="1" t="s">
         <v>30</v>
       </c>
@@ -5252,16 +6385,30 @@
       <c r="G83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="M83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P83" s="1" t="s">
         <v>21</v>
       </c>
@@ -5297,16 +6444,30 @@
       <c r="G84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="M84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P84" s="1" t="s">
         <v>21</v>
       </c>
@@ -5342,16 +6503,30 @@
       <c r="G85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L85" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
+      <c r="M85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P85" s="1" t="s">
         <v>19</v>
       </c>
@@ -5387,16 +6562,30 @@
       <c r="G86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L86" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="M86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P86" s="1" t="s">
         <v>19</v>
       </c>
@@ -5444,13 +6633,27 @@
       <c r="K87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S87" s="1" t="s">
         <v>22</v>
       </c>
@@ -5489,13 +6692,27 @@
       <c r="K88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S88" s="1" t="s">
         <v>22</v>
       </c>
@@ -5534,13 +6751,27 @@
       <c r="K89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S89" s="1" t="s">
         <v>18</v>
       </c>
@@ -5579,13 +6810,27 @@
       <c r="K90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S90" s="1" t="s">
         <v>18</v>
       </c>
@@ -5624,13 +6869,27 @@
       <c r="K91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S91" s="1" t="s">
         <v>26</v>
       </c>
@@ -5669,13 +6928,27 @@
       <c r="K92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="L92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S92" s="1" t="s">
         <v>26</v>
       </c>
@@ -5702,10 +6975,18 @@
       <c r="G93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L93" s="1" t="s">
         <v>19</v>
       </c>
@@ -5718,9 +6999,15 @@
       <c r="O93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
+      <c r="P93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S93" s="1" t="s">
         <v>27</v>
       </c>
@@ -5747,10 +7034,18 @@
       <c r="G94" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L94" s="1" t="s">
         <v>19</v>
       </c>
@@ -5763,9 +7058,15 @@
       <c r="O94" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
+      <c r="P94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S94" s="1" t="s">
         <v>28</v>
       </c>
@@ -5792,10 +7093,18 @@
       <c r="G95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L95" s="1" t="s">
         <v>19</v>
       </c>
@@ -5808,9 +7117,15 @@
       <c r="O95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
+      <c r="P95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S95" s="1" t="s">
         <v>28</v>
       </c>
@@ -5837,10 +7152,18 @@
       <c r="G96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L96" s="1" t="s">
         <v>19</v>
       </c>
@@ -5853,9 +7176,15 @@
       <c r="O96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
+      <c r="P96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S96" s="1" t="s">
         <v>29</v>
       </c>
@@ -5882,10 +7211,18 @@
       <c r="G97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L97" s="1" t="s">
         <v>19</v>
       </c>
@@ -5898,9 +7235,15 @@
       <c r="O97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="P97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S97" s="1" t="s">
         <v>29</v>
       </c>
@@ -5927,10 +7270,18 @@
       <c r="G98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L98" s="1" t="s">
         <v>19</v>
       </c>
@@ -5943,9 +7294,15 @@
       <c r="O98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
+      <c r="P98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S98" s="1" t="s">
         <v>30</v>
       </c>
@@ -5972,10 +7329,18 @@
       <c r="G99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L99" s="1" t="s">
         <v>19</v>
       </c>
@@ -5988,9 +7353,15 @@
       <c r="O99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
+      <c r="P99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S99" s="1" t="s">
         <v>30</v>
       </c>
@@ -6017,16 +7388,30 @@
       <c r="G100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L100" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
+      <c r="M100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P100" s="1" t="s">
         <v>21</v>
       </c>
@@ -6062,16 +7447,30 @@
       <c r="G101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L101" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="M101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P101" s="1" t="s">
         <v>21</v>
       </c>
@@ -6107,16 +7506,30 @@
       <c r="G102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
+      <c r="M102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P102" s="1" t="s">
         <v>19</v>
       </c>
